--- a/tsml_eval/_wip/catch22/aeon_catch22_no_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_no_numba.xlsx
@@ -581,7 +581,7 @@
         <v>0.75</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O2" t="n">
         <v>-0.625</v>
@@ -655,7 +655,7 @@
         <v>-0.6666666666666667</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7027748523460557</v>
+        <v>0.7027748523460556</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>15</v>
@@ -673,7 +673,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.6661598584833752</v>
+        <v>0.6661598584833751</v>
       </c>
     </row>
     <row r="4">
@@ -693,7 +693,7 @@
         <v>0.4641090699437339</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2165927469025811</v>
+        <v>0.216592746902581</v>
       </c>
       <c r="G4" t="n">
         <v>0.9130434782608695</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08910362001443278</v>
+        <v>0.08910362001443274</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -717,13 +717,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N4" t="n">
-        <v>0.875</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0.25</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3105674139582153</v>
+        <v>0.3105674139582154</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>4</v>
@@ -758,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6093185793190496</v>
+        <v>0.6093185793190494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1249221203757298</v>
+        <v>0.1249221203757299</v>
       </c>
       <c r="G5" t="n">
         <v>0.8695652173913043</v>
@@ -785,13 +785,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O5" t="n">
         <v>-0.625</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8040471592192819</v>
+        <v>0.804047159219282</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>13</v>
@@ -809,7 +809,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.6483091445548901</v>
+        <v>0.64830914455489</v>
       </c>
     </row>
     <row r="6">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5590221813578006</v>
+        <v>0.5590221813578007</v>
       </c>
       <c r="F6" t="n">
         <v>0.05454866900630459</v>
@@ -853,13 +853,13 @@
         <v>0.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O6" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6754849824949914</v>
+        <v>0.6754849824949913</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>16</v>
@@ -894,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3128434764569265</v>
+        <v>0.3128434764569266</v>
       </c>
       <c r="F7" t="n">
         <v>0.3447650001160035</v>
@@ -927,7 +927,7 @@
         <v>-0.4583333333333334</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4069984278359966</v>
+        <v>0.4069984278359965</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
@@ -965,7 +965,7 @@
         <v>0.6396131603023893</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1966051810967131</v>
+        <v>0.1966051810967132</v>
       </c>
       <c r="G8" t="n">
         <v>0.9130434782608695</v>
@@ -989,13 +989,13 @@
         <v>0.75</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.04166666666666663</v>
+        <v>-0.04166666666666672</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5978962573702266</v>
+        <v>0.5978962573702267</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>8</v>
@@ -1030,10 +1030,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5731491830329674</v>
+        <v>0.5731491830329671</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05384822332119522</v>
+        <v>0.05384822332119521</v>
       </c>
       <c r="G9" t="n">
         <v>0.9130434782608695</v>
@@ -1057,13 +1057,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O9" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7373254361100834</v>
+        <v>0.7373254361100833</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>15</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6079137608318883</v>
+        <v>0.6079137608318881</v>
       </c>
       <c r="F10" t="n">
         <v>0.07593703284829169</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3778836857246203</v>
+        <v>0.3778836857246204</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
@@ -1125,13 +1125,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O10" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7404830606197637</v>
+        <v>0.7404830606197635</v>
       </c>
       <c r="Q10" s="1" t="n">
         <v>16</v>
@@ -1149,7 +1149,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.6005775785608444</v>
+        <v>0.6005775785608443</v>
       </c>
     </row>
     <row r="11">
@@ -1166,10 +1166,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7718463280452654</v>
+        <v>0.7718463280452653</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1078952415495424</v>
+        <v>0.1078952415495425</v>
       </c>
       <c r="G11" t="n">
         <v>0.9130434782608695</v>
@@ -1193,7 +1193,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O11" t="n">
         <v>-0.625</v>
@@ -1234,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7483716894163833</v>
+        <v>0.7483716894163832</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3084149990341673</v>
+        <v>0.3084149990341674</v>
       </c>
       <c r="G12" t="n">
         <v>0.8695652173913043</v>
@@ -1261,7 +1261,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N12" t="n">
-        <v>0.125</v>
+        <v>0.1249999999999999</v>
       </c>
       <c r="O12" t="n">
         <v>-0.625</v>
@@ -1285,7 +1285,7 @@
         <v>0.3926990816987241</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.7370563993323641</v>
+        <v>0.7370563993323642</v>
       </c>
     </row>
     <row r="13">
@@ -1302,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4478498363562825</v>
+        <v>0.4478498363562824</v>
       </c>
       <c r="F13" t="n">
         <v>0.1265194915950659</v>
@@ -1335,7 +1335,7 @@
         <v>-0.625</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6788710458531928</v>
+        <v>0.6788710458531927</v>
       </c>
       <c r="Q13" s="1" t="n">
         <v>17</v>
@@ -1370,10 +1370,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5590221813578006</v>
+        <v>0.5590221813578007</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05309767033822801</v>
+        <v>0.05309767033822804</v>
       </c>
       <c r="G14" t="n">
         <v>0.8695652173913043</v>
@@ -1397,7 +1397,7 @@
         <v>0.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O14" t="n">
         <v>-0.625</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4798044244031646</v>
+        <v>0.4798044244031647</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>4</v>
@@ -1533,7 +1533,7 @@
         <v>0.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O16" t="n">
         <v>-0.6666666666666667</v>
@@ -1601,13 +1601,13 @@
         <v>0.75</v>
       </c>
       <c r="N17" t="n">
-        <v>0.875</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.375</v>
+        <v>-0.3750000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.407277495840037</v>
+        <v>0.4072774958400371</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
@@ -1645,7 +1645,7 @@
         <v>0.485337597948598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05765345289547428</v>
+        <v>0.05765345289547429</v>
       </c>
       <c r="G18" t="n">
         <v>0.9565217391304348</v>
@@ -1669,10 +1669,10 @@
         <v>0.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P18" t="n">
         <v>0.6190143854148003</v>
@@ -1710,7 +1710,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6858628080656607</v>
+        <v>0.6858628080656606</v>
       </c>
       <c r="F19" t="n">
         <v>0.06362976908855447</v>
@@ -1737,13 +1737,13 @@
         <v>0.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="O19" t="n">
         <v>-0.5416666666666667</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6217645988052943</v>
+        <v>0.6217645988052942</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>7</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6555682270823207</v>
+        <v>0.6555682270823208</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1034394112097917</v>
+        <v>0.1034394112097916</v>
       </c>
       <c r="G20" t="n">
         <v>0.7826086956521739</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4481460856785228</v>
+        <v>0.4481460856785227</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>4</v>
@@ -1805,13 +1805,13 @@
         <v>0.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1458333333333334</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="O20" t="n">
         <v>-0.625</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8088382236805129</v>
+        <v>0.8088382236805132</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>16</v>
@@ -1873,7 +1873,7 @@
         <v>0.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O21" t="n">
         <v>-0.625</v>
@@ -1917,7 +1917,7 @@
         <v>0.5855345727842972</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06405295892084899</v>
+        <v>0.064052958920849</v>
       </c>
       <c r="G22" t="n">
         <v>0.8260869565217391</v>
@@ -1947,7 +1947,7 @@
         <v>-0.625</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7093218955161195</v>
+        <v>0.7093218955161197</v>
       </c>
       <c r="Q22" s="1" t="n">
         <v>15</v>
@@ -1982,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5744675483392006</v>
+        <v>0.5744675483392004</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09333964101059629</v>
+        <v>0.0933396410105963</v>
       </c>
       <c r="G23" t="n">
         <v>0.9130434782608695</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2704324930731608</v>
+        <v>0.2704324930731606</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
@@ -2009,13 +2009,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O23" t="n">
         <v>-0.625</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7978298655752957</v>
+        <v>0.7978298655752953</v>
       </c>
       <c r="Q23" s="1" t="n">
         <v>16</v>
@@ -2050,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4478498363562825</v>
+        <v>0.4478498363562824</v>
       </c>
       <c r="F24" t="n">
         <v>0.1238441504293555</v>
@@ -2077,7 +2077,7 @@
         <v>0.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.08333333333333326</v>
+        <v>0.08333333333333327</v>
       </c>
       <c r="O24" t="n">
         <v>-0.6666666666666667</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3525351912503065</v>
+        <v>0.3525351912503066</v>
       </c>
       <c r="L25" s="1" t="n">
         <v>4</v>
@@ -2145,13 +2145,13 @@
         <v>0.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="O25" t="n">
         <v>-0.625</v>
       </c>
       <c r="P25" t="n">
-        <v>0.6565063269063961</v>
+        <v>0.656506326906396</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>16</v>
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5380978201604567</v>
+        <v>0.5380978201604568</v>
       </c>
       <c r="F26" t="n">
         <v>0.08974974039051774</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2174505497779008</v>
+        <v>0.2174505497779009</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
@@ -2213,13 +2213,13 @@
         <v>0.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O26" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P26" t="n">
-        <v>0.663683602559053</v>
+        <v>0.6636836025590529</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>16</v>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5277134018757479</v>
+        <v>0.5277134018757478</v>
       </c>
       <c r="F27" t="n">
         <v>0.3542779772791617</v>
@@ -2281,13 +2281,13 @@
         <v>0.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O27" t="n">
         <v>-0.625</v>
       </c>
       <c r="P27" t="n">
-        <v>0.4337770710588942</v>
+        <v>0.4337770710588943</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>7</v>
@@ -2349,13 +2349,13 @@
         <v>0.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O28" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6743069499229294</v>
+        <v>0.6743069499229292</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>15</v>
@@ -2390,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6562956405074443</v>
+        <v>0.6562956405074442</v>
       </c>
       <c r="F29" t="n">
         <v>0.08772222007441691</v>
@@ -2417,13 +2417,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N29" t="n">
-        <v>0.125</v>
+        <v>0.1249999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8349861566943182</v>
+        <v>0.8349861566943183</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>12</v>
@@ -2485,13 +2485,13 @@
         <v>0.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.08333333333333326</v>
+        <v>0.08333333333333327</v>
       </c>
       <c r="O30" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7789099676396364</v>
+        <v>0.7789099676396366</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>16</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3250411085106833</v>
+        <v>0.3250411085106832</v>
       </c>
       <c r="L31" s="1" t="n">
         <v>4</v>
@@ -2553,13 +2553,13 @@
         <v>0.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O31" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6814860262368828</v>
+        <v>0.6814860262368827</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>16</v>
@@ -2577,7 +2577,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.6692841971169189</v>
+        <v>0.6692841971169188</v>
       </c>
     </row>
     <row r="32">
@@ -2597,7 +2597,7 @@
         <v>0.5855345727842972</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07158404357812798</v>
+        <v>0.07158404357812796</v>
       </c>
       <c r="G32" t="n">
         <v>0.9130434782608695</v>
@@ -2621,13 +2621,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O32" t="n">
         <v>-0.625</v>
       </c>
       <c r="P32" t="n">
-        <v>0.711230510466656</v>
+        <v>0.7112305104666558</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>15</v>
@@ -2665,7 +2665,7 @@
         <v>0.4635993701452024</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3308712537067424</v>
+        <v>0.3308712537067423</v>
       </c>
       <c r="G33" t="n">
         <v>0.9130434782608695</v>
@@ -2695,7 +2695,7 @@
         <v>-0.4583333333333334</v>
       </c>
       <c r="P33" t="n">
-        <v>0.3963407501493901</v>
+        <v>0.39634075014939</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>5</v>
@@ -2730,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7718463280452654</v>
+        <v>0.7718463280452653</v>
       </c>
       <c r="F34" t="n">
         <v>0.08419052673666019</v>
@@ -2757,7 +2757,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O34" t="n">
         <v>-0.625</v>
@@ -2825,10 +2825,10 @@
         <v>0.5</v>
       </c>
       <c r="N35" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P35" t="n">
         <v>0.6054045887584985</v>
@@ -2849,7 +2849,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.7222017470467507</v>
+        <v>0.7222017470467508</v>
       </c>
     </row>
     <row r="36">
@@ -2869,7 +2869,7 @@
         <v>0.6676442489277807</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1533686765949676</v>
+        <v>0.1533686765949675</v>
       </c>
       <c r="G36" t="n">
         <v>0.9565217391304348</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2157362186069349</v>
+        <v>0.215736218606935</v>
       </c>
       <c r="L36" t="n">
         <v>3</v>
@@ -2893,10 +2893,10 @@
         <v>0.75</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.04166666666666663</v>
+        <v>-0.04166666666666672</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P36" t="n">
         <v>0.5705471799181075</v>
@@ -2917,7 +2917,7 @@
         <v>0.3926990816987241</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.8744251823984154</v>
+        <v>0.8744251823984155</v>
       </c>
     </row>
     <row r="37">
@@ -2937,7 +2937,7 @@
         <v>0.7242783149757608</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0935912756731254</v>
+        <v>0.09359127567312539</v>
       </c>
       <c r="G37" t="n">
         <v>0.7826086956521739</v>
@@ -2952,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3719056428795899</v>
+        <v>0.37190564287959</v>
       </c>
       <c r="L37" t="n">
         <v>5</v>
@@ -2961,13 +2961,13 @@
         <v>0.5</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O37" t="n">
         <v>-0.625</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8204341074181248</v>
+        <v>0.8204341074181251</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>16</v>
@@ -3005,7 +3005,7 @@
         <v>0.6723319593699535</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03537518638771151</v>
+        <v>0.03537518638771152</v>
       </c>
       <c r="G38" t="n">
         <v>0.9130434782608695</v>
@@ -3029,7 +3029,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O38" t="n">
         <v>-0.625</v>
@@ -3073,7 +3073,7 @@
         <v>0.4068788509162941</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1701933093209315</v>
+        <v>0.1701933093209314</v>
       </c>
       <c r="G39" t="n">
         <v>0.9130434782608695</v>
@@ -3097,13 +3097,13 @@
         <v>0.75</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.04166666666666663</v>
+        <v>-0.04166666666666672</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P39" t="n">
-        <v>0.520230472583678</v>
+        <v>0.5202304725836779</v>
       </c>
       <c r="Q39" s="1" t="n">
         <v>7</v>
@@ -3138,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6124650097300472</v>
+        <v>0.6124650097300474</v>
       </c>
       <c r="F40" t="n">
         <v>0.09192011413889337</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3777711578296781</v>
+        <v>0.3777711578296782</v>
       </c>
       <c r="L40" t="n">
         <v>5</v>
@@ -3165,7 +3165,7 @@
         <v>0.5</v>
       </c>
       <c r="N40" t="n">
-        <v>0.25</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="O40" t="n">
         <v>-0.6666666666666667</v>
@@ -3206,10 +3206,10 @@
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6112831059678281</v>
+        <v>0.6112831059678279</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05740045253921694</v>
+        <v>0.05740045253921695</v>
       </c>
       <c r="G41" t="n">
         <v>0.9565217391304348</v>
@@ -3233,7 +3233,7 @@
         <v>0.5</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O41" t="n">
         <v>-0.625</v>
@@ -3274,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6322887192477502</v>
+        <v>0.6322887192477501</v>
       </c>
       <c r="F42" t="n">
         <v>0.2441883805353921</v>
@@ -3301,13 +3301,13 @@
         <v>0.4</v>
       </c>
       <c r="N42" t="n">
-        <v>0.625</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="O42" t="n">
         <v>-0.5416666666666667</v>
       </c>
       <c r="P42" t="n">
-        <v>0.4987382332235185</v>
+        <v>0.4987382332235186</v>
       </c>
       <c r="Q42" s="1" t="n">
         <v>6</v>
@@ -3342,10 +3342,10 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5744675483392003</v>
+        <v>0.5744675483392002</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0570054104169956</v>
+        <v>0.05700541041699559</v>
       </c>
       <c r="G43" t="n">
         <v>0.8260869565217391</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3522948319246225</v>
+        <v>0.3522948319246226</v>
       </c>
       <c r="L43" t="n">
         <v>4</v>
@@ -3369,7 +3369,7 @@
         <v>0.8</v>
       </c>
       <c r="N43" t="n">
-        <v>0.25</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="O43" t="n">
         <v>-0.6666666666666667</v>
@@ -3393,7 +3393,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.6902736568580092</v>
+        <v>0.6902736568580091</v>
       </c>
     </row>
     <row r="44">
@@ -3410,10 +3410,10 @@
         <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7553919636635025</v>
+        <v>0.7553919636635024</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0545367516701817</v>
+        <v>0.05453675167018169</v>
       </c>
       <c r="G44" t="n">
         <v>0.9565217391304348</v>
@@ -3437,13 +3437,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N44" t="n">
-        <v>0.125</v>
+        <v>0.1249999999999999</v>
       </c>
       <c r="O44" t="n">
         <v>-0.625</v>
       </c>
       <c r="P44" t="n">
-        <v>0.832181276447443</v>
+        <v>0.8321812764474428</v>
       </c>
       <c r="Q44" s="1" t="n">
         <v>16</v>
@@ -3461,7 +3461,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.6050311586955949</v>
+        <v>0.605031158695595</v>
       </c>
     </row>
     <row r="45">
@@ -3478,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4392882820779883</v>
+        <v>0.439288282077988</v>
       </c>
       <c r="F45" t="n">
         <v>0.2025087046991278</v>
@@ -3505,13 +3505,13 @@
         <v>0.5</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5438493567137969</v>
+        <v>0.543849356713797</v>
       </c>
       <c r="Q45" s="1" t="n">
         <v>9</v>
@@ -3549,7 +3549,7 @@
         <v>0.5586041358385472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03007488095023929</v>
+        <v>0.0300748809502393</v>
       </c>
       <c r="G46" t="n">
         <v>0.8260869565217391</v>
@@ -3573,7 +3573,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O46" t="n">
         <v>-0.625</v>
@@ -3597,7 +3597,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.6662679161478899</v>
+        <v>0.6662679161478898</v>
       </c>
     </row>
     <row r="47">
@@ -3617,7 +3617,7 @@
         <v>0.7943984224547125</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08121861922139685</v>
+        <v>0.08121861922139682</v>
       </c>
       <c r="G47" t="n">
         <v>0.8695652173913043</v>
@@ -3632,7 +3632,7 @@
         <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3357415304668627</v>
+        <v>0.3357415304668626</v>
       </c>
       <c r="L47" t="n">
         <v>4</v>
@@ -3641,13 +3641,13 @@
         <v>0.5</v>
       </c>
       <c r="N47" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O47" t="n">
         <v>-0.625</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8179327885082109</v>
+        <v>0.8179327885082108</v>
       </c>
       <c r="Q47" s="1" t="n">
         <v>13</v>
@@ -3712,7 +3712,7 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.375</v>
+        <v>-0.3750000000000001</v>
       </c>
       <c r="P48" t="n">
         <v>0.3953789138509297</v>
@@ -3733,7 +3733,7 @@
         <v>0.5890486225480862</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.827175465198296</v>
+        <v>0.8271754651982959</v>
       </c>
     </row>
     <row r="49">
@@ -3750,7 +3750,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6246774931195211</v>
+        <v>0.624677493119521</v>
       </c>
       <c r="F49" t="n">
         <v>0.09910837918350009</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3762245716819117</v>
+        <v>0.3762245716819116</v>
       </c>
       <c r="L49" t="n">
         <v>4</v>
@@ -3777,7 +3777,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N49" t="n">
-        <v>0.125</v>
+        <v>0.1249999999999999</v>
       </c>
       <c r="O49" t="n">
         <v>-0.625</v>
@@ -3845,13 +3845,13 @@
         <v>0.6</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7291666666666665</v>
       </c>
       <c r="O50" t="n">
         <v>-0.5</v>
       </c>
       <c r="P50" t="n">
-        <v>0.4418276414378307</v>
+        <v>0.4418276414378308</v>
       </c>
       <c r="Q50" s="1" t="n">
         <v>5</v>
@@ -3889,7 +3889,7 @@
         <v>0.4717202960719629</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3019675635040282</v>
+        <v>0.3019675635040283</v>
       </c>
       <c r="G51" t="n">
         <v>0.8260869565217391</v>
@@ -3913,13 +3913,13 @@
         <v>0.75</v>
       </c>
       <c r="N51" t="n">
-        <v>0.08333333333333326</v>
+        <v>0.08333333333333327</v>
       </c>
       <c r="O51" t="n">
         <v>-0.625</v>
       </c>
       <c r="P51" t="n">
-        <v>0.4280771712004224</v>
+        <v>0.4280771712004225</v>
       </c>
       <c r="Q51" s="1" t="n">
         <v>7</v>
@@ -3957,7 +3957,7 @@
         <v>0.6011112002113609</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08122178109758689</v>
+        <v>0.0812217810975869</v>
       </c>
       <c r="G52" t="n">
         <v>0.9130434782608695</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3733513064440255</v>
+        <v>0.3733513064440256</v>
       </c>
       <c r="L52" t="n">
         <v>5</v>
@@ -3981,13 +3981,13 @@
         <v>0.5</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O52" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P52" t="n">
-        <v>0.6796055464304637</v>
+        <v>0.6796055464304638</v>
       </c>
       <c r="Q52" s="1" t="n">
         <v>16</v>
@@ -4025,7 +4025,7 @@
         <v>0.4306628574510462</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09252280868735695</v>
+        <v>0.09252280868735699</v>
       </c>
       <c r="G53" t="n">
         <v>0.9130434782608695</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2691040294853204</v>
+        <v>0.2691040294853203</v>
       </c>
       <c r="L53" t="n">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>0.4</v>
       </c>
       <c r="N53" t="n">
-        <v>0.04166666666666674</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P53" t="n">
         <v>0.5746041788589592</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1984113086107901</v>
+        <v>0.1984113086107902</v>
       </c>
       <c r="L54" t="n">
         <v>4</v>
@@ -4117,7 +4117,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N54" t="n">
-        <v>0.08333333333333326</v>
+        <v>0.08333333333333327</v>
       </c>
       <c r="O54" t="n">
         <v>-0.6666666666666667</v>
@@ -4129,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="R54" t="n">
-        <v>1.639934155283392</v>
+        <v>1.639934155283393</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0.75</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.04166666666666663</v>
+        <v>-0.04166666666666672</v>
       </c>
       <c r="O55" t="n">
         <v>-0.5416666666666667</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2376496642364703</v>
+        <v>0.2376496642364702</v>
       </c>
       <c r="L56" t="n">
         <v>3</v>
@@ -4253,7 +4253,7 @@
         <v>0.75</v>
       </c>
       <c r="N56" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O56" t="n">
         <v>-0.625</v>
@@ -4294,10 +4294,10 @@
         <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5506835418044482</v>
+        <v>0.5506835418044481</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05035538450964173</v>
+        <v>0.05035538450964174</v>
       </c>
       <c r="G57" t="n">
         <v>0.8695652173913043</v>
@@ -4327,7 +4327,7 @@
         <v>-0.6666666666666667</v>
       </c>
       <c r="P57" t="n">
-        <v>0.7750123137142798</v>
+        <v>0.7750123137142799</v>
       </c>
       <c r="Q57" s="1" t="n">
         <v>15</v>
@@ -4365,7 +4365,7 @@
         <v>0.5140960999991127</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1092565779015804</v>
+        <v>0.1092565779015803</v>
       </c>
       <c r="G58" t="n">
         <v>0.7826086956521739</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2708237797136227</v>
+        <v>0.2708237797136228</v>
       </c>
       <c r="L58" t="n">
         <v>4</v>
@@ -4389,13 +4389,13 @@
         <v>0.5</v>
       </c>
       <c r="N58" t="n">
-        <v>0.08333333333333326</v>
+        <v>0.08333333333333327</v>
       </c>
       <c r="O58" t="n">
         <v>-0.625</v>
       </c>
       <c r="P58" t="n">
-        <v>0.7963553909586719</v>
+        <v>0.7963553909586716</v>
       </c>
       <c r="Q58" s="1" t="n">
         <v>16</v>
@@ -4413,7 +4413,7 @@
         <v>0.3926990816987241</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.645264267107728</v>
+        <v>0.6452642671077279</v>
       </c>
     </row>
     <row r="59">
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4651742170898424</v>
+        <v>0.4651742170898425</v>
       </c>
       <c r="L59" t="n">
         <v>5</v>
@@ -4457,13 +4457,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N59" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="O59" t="n">
         <v>-0.6666666666666667</v>
       </c>
       <c r="P59" t="n">
-        <v>0.75613836899189</v>
+        <v>0.7561383689918901</v>
       </c>
       <c r="Q59" s="1" t="n">
         <v>15</v>
@@ -4498,7 +4498,7 @@
         <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4016866417739396</v>
+        <v>0.4016866417739395</v>
       </c>
       <c r="F60" t="n">
         <v>0.1429109327937907</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.09378303137176296</v>
+        <v>0.09378303137176291</v>
       </c>
       <c r="L61" t="n">
         <v>2</v>
@@ -4593,10 +4593,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="N61" t="n">
-        <v>0.875</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.1666666666666666</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="P61" t="n">
         <v>0.2440544779975879</v>
@@ -4617,7 +4617,7 @@
         <v>0.5890486225480862</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.8507203206479009</v>
+        <v>0.8507203206479008</v>
       </c>
     </row>
     <row r="62">
@@ -4634,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7052684720641099</v>
+        <v>0.7052684720641098</v>
       </c>
       <c r="F62" t="n">
         <v>0.08747346436896355</v>
@@ -4661,13 +4661,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O62" t="n">
         <v>-0.625</v>
       </c>
       <c r="P62" t="n">
-        <v>0.838812518004089</v>
+        <v>0.8388125180040888</v>
       </c>
       <c r="Q62" s="1" t="n">
         <v>13</v>
@@ -4702,10 +4702,10 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6406273588011024</v>
+        <v>0.6406273588011022</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04270055004200562</v>
+        <v>0.04270055004200561</v>
       </c>
       <c r="G63" t="n">
         <v>0.8260869565217391</v>
@@ -4729,7 +4729,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N63" t="n">
-        <v>0.25</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="O63" t="n">
         <v>-0.6666666666666667</v>
@@ -4753,7 +4753,7 @@
         <v>0.1963495408493621</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>0.6135343276114882</v>
+        <v>0.6135343276114881</v>
       </c>
     </row>
     <row r="64">
@@ -4770,7 +4770,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6097366248383027</v>
+        <v>0.6097366248383028</v>
       </c>
       <c r="F64" t="n">
         <v>0.1269606968089528</v>
@@ -4797,13 +4797,13 @@
         <v>0.6</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>-5.551115123125783e-17</v>
       </c>
       <c r="O64" t="n">
         <v>-0.625</v>
       </c>
       <c r="P64" t="n">
-        <v>0.6688431671727502</v>
+        <v>0.6688431671727501</v>
       </c>
       <c r="Q64" s="1" t="n">
         <v>15</v>
@@ -4838,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6560727257825023</v>
+        <v>0.6560727257825022</v>
       </c>
       <c r="F65" t="n">
         <v>0.2154968763255491</v>
@@ -4865,10 +4865,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N65" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.5833333333333333</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="P65" t="n">
         <v>0.728706648937482</v>
@@ -4906,10 +4906,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6521124287654526</v>
+        <v>0.6521124287654525</v>
       </c>
       <c r="F66" t="n">
-        <v>0.07172661285493492</v>
+        <v>0.07172661285493494</v>
       </c>
       <c r="G66" t="n">
         <v>0.9565217391304348</v>
@@ -4933,13 +4933,13 @@
         <v>0.5</v>
       </c>
       <c r="N66" t="n">
-        <v>0.08333333333333326</v>
+        <v>0.08333333333333327</v>
       </c>
       <c r="O66" t="n">
         <v>-0.625</v>
       </c>
       <c r="P66" t="n">
-        <v>0.7478701909544908</v>
+        <v>0.7478701909544907</v>
       </c>
       <c r="Q66" s="1" t="n">
         <v>16</v>
@@ -5001,13 +5001,13 @@
         <v>0.5</v>
       </c>
       <c r="N67" t="n">
-        <v>0.08333333333333326</v>
+        <v>0.08333333333333327</v>
       </c>
       <c r="O67" t="n">
         <v>-0.625</v>
       </c>
       <c r="P67" t="n">
-        <v>0.8126578653457571</v>
+        <v>0.812657865345757</v>
       </c>
       <c r="Q67" s="1" t="n">
         <v>15</v>
@@ -5042,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3282023902573983</v>
+        <v>0.3282023902573982</v>
       </c>
       <c r="F68" t="n">
         <v>0.4581136801809949</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.09001035183246431</v>
+        <v>0.09001035183246436</v>
       </c>
       <c r="L68" t="n">
         <v>2</v>
@@ -5069,10 +5069,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N68" t="n">
-        <v>0.875</v>
+        <v>0.8749999999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.2916666666666666</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="P68" t="n">
         <v>0.211636893247127</v>
